--- a/exporteddata/empNewDATA.xlsx
+++ b/exporteddata/empNewDATA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Anil</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Juhi</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +225,34 @@
         <v>9000000.0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7500000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8500000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
